--- a/ГОСТ/Подшипники/Раддиальные роликовые/Подшипник ГОСТ 7242-81 (СД1).xlsx
+++ b/ГОСТ/Подшипники/Раддиальные роликовые/Подшипник ГОСТ 7242-81 (СД1).xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{87768192-D8FD-4AB3-9A8A-D63213D07ADF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FAF19CFB-41BC-400F-BDE0-7823C10FB32C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="veryHidden" xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{A3203510-5DA8-4BFA-991C-C466F46FE677}"/>
+    <workbookView visibility="veryHidden" xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A3203510-5DA8-4BFA-991C-C466F46FE677}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -13,10 +13,16 @@
   <definedNames>
     <definedName name="Family">Лист1!$A$2</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -420,14 +426,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80EDDF7A-A23A-4336-9857-39A6F6F8081A}">
   <dimension ref="A1:H28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="105" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="2.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="4" width="7.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="7.5703125" style="3" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="6.28515625" style="3" customWidth="1"/>
     <col min="6" max="7" width="9.140625" style="3"/>
     <col min="8" max="8" width="15" style="3" customWidth="1"/>

--- a/ГОСТ/Подшипники/Раддиальные роликовые/Подшипник ГОСТ 7242-81 (СД1).xlsx
+++ b/ГОСТ/Подшипники/Раддиальные роликовые/Подшипник ГОСТ 7242-81 (СД1).xlsx
@@ -3,9 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FAF19CFB-41BC-400F-BDE0-7823C10FB32C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GIT\SW_ToolBoxHandMade\ГОСТ\Подшипники\Раддиальные роликовые\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97E9D67B-5997-4AAA-8499-869E451F74E6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="veryHidden" xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A3203510-5DA8-4BFA-991C-C466F46FE677}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{A3203510-5DA8-4BFA-991C-C466F46FE677}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -435,7 +440,8 @@
     <col min="1" max="1" width="2.42578125" style="4" bestFit="1" customWidth="1"/>
     <col min="2" max="4" width="7.5703125" style="3" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="6.28515625" style="3" customWidth="1"/>
-    <col min="6" max="7" width="9.140625" style="3"/>
+    <col min="6" max="6" width="9.140625" style="3"/>
+    <col min="7" max="7" width="32.7109375" style="3" customWidth="1"/>
     <col min="8" max="8" width="15" style="3" customWidth="1"/>
     <col min="9" max="16384" width="9.140625" style="3"/>
   </cols>
